--- a/trunk/Chinese/ChineseVoca.xlsx
+++ b/trunk/Chinese/ChineseVoca.xlsx
@@ -305,12 +305,147 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+bīngxiāng
+refrigerator</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>那個飢餓的男人在冰箱裡找食物
+Nàge jī'è de nánrén zài bīngxiāng lǐ zhǎo shíwù
+The hungry man is looking for food in the refrigerator</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+xǐ yīfu
+wash clothes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>女人正在用洗衣機洗衣服
+Nǚrén zhèngzài yòng xǐyījī xǐ yīfu
+The woman is washing clothes in the washing machine</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+shǒubiǎo
+watch</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>那個手表看起來很貴
+Nàgè shǒubiǎo kàn qǐlái hěn guì
+That watch looks expensive.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>我的手表丟了
+Wǒ de shǒubiǎo diū le
+I lost my watch</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>盤 子</t>
   </si>
@@ -361,13 +496,22 @@
   </si>
   <si>
     <t>Example 10</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>洗衣服</t>
+  </si>
+  <si>
+    <t>手表</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +550,25 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -449,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,6 +622,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,7 +930,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -860,15 +1024,24 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
